--- a/data/pca/factorExposure/factorExposure_2009-07-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01677387645791938</v>
+        <v>0.01659990703952539</v>
       </c>
       <c r="C2">
-        <v>0.001278325659508876</v>
+        <v>-0.0008153366737405008</v>
       </c>
       <c r="D2">
-        <v>0.007757946439551624</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009096212430612068</v>
+      </c>
+      <c r="E2">
+        <v>-0.001245258022818804</v>
+      </c>
+      <c r="F2">
+        <v>-0.01453241621539341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09069088646306304</v>
+        <v>0.09137786135202221</v>
       </c>
       <c r="C4">
-        <v>0.01969270654182645</v>
+        <v>-0.0143111147744966</v>
       </c>
       <c r="D4">
-        <v>0.07323774992893173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08317153757067954</v>
+      </c>
+      <c r="E4">
+        <v>-0.02759532281930095</v>
+      </c>
+      <c r="F4">
+        <v>0.03067856575586927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1512936543687138</v>
+        <v>0.1610531069899795</v>
       </c>
       <c r="C6">
-        <v>0.02854032944010444</v>
+        <v>-0.02762070343590275</v>
       </c>
       <c r="D6">
-        <v>-0.03005016816060375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02553671168923285</v>
+      </c>
+      <c r="E6">
+        <v>-0.008962106104097072</v>
+      </c>
+      <c r="F6">
+        <v>0.04155584399447322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06186963038664291</v>
+        <v>0.06268704417715872</v>
       </c>
       <c r="C7">
-        <v>0.002299411585650953</v>
+        <v>0.001693091785015911</v>
       </c>
       <c r="D7">
-        <v>0.04371178574227889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05234926400364229</v>
+      </c>
+      <c r="E7">
+        <v>-0.01218404372925479</v>
+      </c>
+      <c r="F7">
+        <v>0.04660580762136397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06245739713734815</v>
+        <v>0.05805032016220595</v>
       </c>
       <c r="C8">
-        <v>-0.01079799586744014</v>
+        <v>0.01276014472276362</v>
       </c>
       <c r="D8">
-        <v>0.02753785036339309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03140526055346348</v>
+      </c>
+      <c r="E8">
+        <v>-0.01713508929290309</v>
+      </c>
+      <c r="F8">
+        <v>-0.02537461324294056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.0706510052129475</v>
+        <v>0.0704410363206382</v>
       </c>
       <c r="C9">
-        <v>0.01640846471639508</v>
+        <v>-0.01017791374044146</v>
       </c>
       <c r="D9">
-        <v>0.07339020197327503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08649114475965364</v>
+      </c>
+      <c r="E9">
+        <v>-0.02376762695158681</v>
+      </c>
+      <c r="F9">
+        <v>0.04681081549459146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08585748289584286</v>
+        <v>0.08940310625638044</v>
       </c>
       <c r="C10">
-        <v>0.01390429717863487</v>
+        <v>-0.02115493398356423</v>
       </c>
       <c r="D10">
-        <v>-0.165427832127404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1606280892670396</v>
+      </c>
+      <c r="E10">
+        <v>0.03135795165059984</v>
+      </c>
+      <c r="F10">
+        <v>-0.05761374274184324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09091547036986676</v>
+        <v>0.08760162893239333</v>
       </c>
       <c r="C11">
-        <v>0.01741191972984431</v>
+        <v>-0.01088108947711793</v>
       </c>
       <c r="D11">
-        <v>0.1039188295912043</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1176271520283537</v>
+      </c>
+      <c r="E11">
+        <v>-0.04642528983254455</v>
+      </c>
+      <c r="F11">
+        <v>0.0224709914326794</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09640363635769908</v>
+        <v>0.09054525801260631</v>
       </c>
       <c r="C12">
-        <v>0.01519672088893947</v>
+        <v>-0.008072283243588574</v>
       </c>
       <c r="D12">
-        <v>0.1069284698423327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1321816821846636</v>
+      </c>
+      <c r="E12">
+        <v>-0.04521993361678386</v>
+      </c>
+      <c r="F12">
+        <v>0.03159794177601054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04349413949651859</v>
+        <v>0.04291621955942086</v>
       </c>
       <c r="C13">
-        <v>0.005605592141545233</v>
+        <v>-0.002173769858520591</v>
       </c>
       <c r="D13">
-        <v>0.03386301015752558</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05355404148768979</v>
+      </c>
+      <c r="E13">
+        <v>0.001695272554057332</v>
+      </c>
+      <c r="F13">
+        <v>0.001195269982291405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01870943437112528</v>
+        <v>0.02318798185733558</v>
       </c>
       <c r="C14">
-        <v>0.01488463259923293</v>
+        <v>-0.0137043518693807</v>
       </c>
       <c r="D14">
-        <v>0.02656733403343271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03293028609895253</v>
+      </c>
+      <c r="E14">
+        <v>-0.01787030091852236</v>
+      </c>
+      <c r="F14">
+        <v>0.01183948741906264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.0334028070140128</v>
+        <v>0.03313200515803814</v>
       </c>
       <c r="C15">
-        <v>0.007363626394103438</v>
+        <v>-0.005016846235410249</v>
       </c>
       <c r="D15">
-        <v>0.0386160778990329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04621055332762377</v>
+      </c>
+      <c r="E15">
+        <v>-0.006704879257698239</v>
+      </c>
+      <c r="F15">
+        <v>0.02734028203308267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07551415427318992</v>
+        <v>0.07291979089436096</v>
       </c>
       <c r="C16">
-        <v>0.00798704211021908</v>
+        <v>-0.001270249066074258</v>
       </c>
       <c r="D16">
-        <v>0.105950011176188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1284660370739811</v>
+      </c>
+      <c r="E16">
+        <v>-0.06079487923640685</v>
+      </c>
+      <c r="F16">
+        <v>0.02659518938031367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0004670577427068879</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0002213041823403296</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001401950763149511</v>
+      </c>
+      <c r="E17">
+        <v>-0.001203275766772929</v>
+      </c>
+      <c r="F17">
+        <v>-0.002514055698105228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01810499925365475</v>
+        <v>0.03888704889374971</v>
       </c>
       <c r="C18">
-        <v>-0.003162218938648079</v>
+        <v>0.002855494921051253</v>
       </c>
       <c r="D18">
-        <v>0.02730976550347349</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01567272871015137</v>
+      </c>
+      <c r="E18">
+        <v>0.0071557281934742</v>
+      </c>
+      <c r="F18">
+        <v>-0.008676727780382108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0639248926154079</v>
+        <v>0.06252844368237716</v>
       </c>
       <c r="C20">
-        <v>0.005792651394906091</v>
+        <v>-0.0006680903176573502</v>
       </c>
       <c r="D20">
-        <v>0.06381325067492072</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07877750334485649</v>
+      </c>
+      <c r="E20">
+        <v>-0.05625351383181311</v>
+      </c>
+      <c r="F20">
+        <v>0.03005808743773037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03843405273550356</v>
+        <v>0.04115915727509747</v>
       </c>
       <c r="C21">
-        <v>0.009566268796492488</v>
+        <v>-0.006495518555643723</v>
       </c>
       <c r="D21">
-        <v>0.03598852142665881</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03800042755349435</v>
+      </c>
+      <c r="E21">
+        <v>0.001379336405044596</v>
+      </c>
+      <c r="F21">
+        <v>-0.02329560681933207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04207120489693462</v>
+        <v>0.04476697983667512</v>
       </c>
       <c r="C22">
-        <v>0.001808209676491754</v>
+        <v>-0.001293512175753849</v>
       </c>
       <c r="D22">
-        <v>-0.003617637279198284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007794101391405086</v>
+      </c>
+      <c r="E22">
+        <v>-0.03981981873638539</v>
+      </c>
+      <c r="F22">
+        <v>-0.0369038545777924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04203409693184669</v>
+        <v>0.04474287107201787</v>
       </c>
       <c r="C23">
-        <v>0.001797925188495853</v>
+        <v>-0.001284717431916551</v>
       </c>
       <c r="D23">
-        <v>-0.003594213801097497</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.00780891809739806</v>
+      </c>
+      <c r="E23">
+        <v>-0.04000194461341973</v>
+      </c>
+      <c r="F23">
+        <v>-0.03686520636230738</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08225537838389384</v>
+        <v>0.07899002671567031</v>
       </c>
       <c r="C24">
-        <v>0.0082856326612257</v>
+        <v>-0.001954753986870384</v>
       </c>
       <c r="D24">
-        <v>0.1091148036780949</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1206528219338283</v>
+      </c>
+      <c r="E24">
+        <v>-0.04850220014008022</v>
+      </c>
+      <c r="F24">
+        <v>0.0290863244921327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08756060848471897</v>
+        <v>0.08396191716747566</v>
       </c>
       <c r="C25">
-        <v>0.01091438345589696</v>
+        <v>-0.004623592440106632</v>
       </c>
       <c r="D25">
-        <v>0.09501619446154762</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1098361082089844</v>
+      </c>
+      <c r="E25">
+        <v>-0.03161916102006853</v>
+      </c>
+      <c r="F25">
+        <v>0.02586713897805852</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.0580192868161229</v>
+        <v>0.05945534765906698</v>
       </c>
       <c r="C26">
-        <v>0.01756476424409751</v>
+        <v>-0.01465355625947705</v>
       </c>
       <c r="D26">
-        <v>0.024892053884456</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04274972468428335</v>
+      </c>
+      <c r="E26">
+        <v>-0.02969175646386549</v>
+      </c>
+      <c r="F26">
+        <v>-0.006733828063555692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1335516213983612</v>
+        <v>0.1422222886104504</v>
       </c>
       <c r="C28">
-        <v>0.01291761577432729</v>
+        <v>-0.02262023393200942</v>
       </c>
       <c r="D28">
-        <v>-0.2710152431843559</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2609395684557435</v>
+      </c>
+      <c r="E28">
+        <v>0.06872241160563429</v>
+      </c>
+      <c r="F28">
+        <v>0.002793218080121212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02540247325225689</v>
+        <v>0.02855479467212903</v>
       </c>
       <c r="C29">
-        <v>0.009623331834556704</v>
+        <v>-0.008856597397910001</v>
       </c>
       <c r="D29">
-        <v>0.02493728731910643</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03087855884058632</v>
+      </c>
+      <c r="E29">
+        <v>-0.0130863673281794</v>
+      </c>
+      <c r="F29">
+        <v>-0.01391007855455606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06358954559206004</v>
+        <v>0.05834756409622095</v>
       </c>
       <c r="C30">
-        <v>0.009703988195736408</v>
+        <v>-0.002801647056794758</v>
       </c>
       <c r="D30">
-        <v>0.06900630234952769</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08750359453693637</v>
+      </c>
+      <c r="E30">
+        <v>-0.01200493099536017</v>
+      </c>
+      <c r="F30">
+        <v>0.08032368191949069</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05049036340089672</v>
+        <v>0.0508397832409261</v>
       </c>
       <c r="C31">
-        <v>0.0170504825400831</v>
+        <v>-0.0159777152873968</v>
       </c>
       <c r="D31">
-        <v>0.02209653892322823</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02474972226076531</v>
+      </c>
+      <c r="E31">
+        <v>-0.02866281902574648</v>
+      </c>
+      <c r="F31">
+        <v>-0.001578037254312483</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04623792471955195</v>
+        <v>0.05113064365399578</v>
       </c>
       <c r="C32">
-        <v>0.002049010837788873</v>
+        <v>0.001648178699404652</v>
       </c>
       <c r="D32">
-        <v>0.0223549743968192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03512674524003324</v>
+      </c>
+      <c r="E32">
+        <v>-0.03354797375456407</v>
+      </c>
+      <c r="F32">
+        <v>0.001536409458814343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09123951290814769</v>
+        <v>0.08868300430568761</v>
       </c>
       <c r="C33">
-        <v>0.01376741225260653</v>
+        <v>-0.006731325808555335</v>
       </c>
       <c r="D33">
-        <v>0.08289057143448722</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1030224954290497</v>
+      </c>
+      <c r="E33">
+        <v>-0.04566598970116905</v>
+      </c>
+      <c r="F33">
+        <v>0.04003463818375803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06897046289634069</v>
+        <v>0.06735568962973452</v>
       </c>
       <c r="C34">
-        <v>0.01558863838919201</v>
+        <v>-0.01017418492162439</v>
       </c>
       <c r="D34">
-        <v>0.09044006268849175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1093786687407662</v>
+      </c>
+      <c r="E34">
+        <v>-0.03461900292910871</v>
+      </c>
+      <c r="F34">
+        <v>0.03252138271819408</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02414212718209153</v>
+        <v>0.02611402723092904</v>
       </c>
       <c r="C35">
-        <v>0.003065819616936769</v>
+        <v>-0.002871595723081918</v>
       </c>
       <c r="D35">
-        <v>0.006573072977685395</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01198781058596305</v>
+      </c>
+      <c r="E35">
+        <v>-0.01223949980503853</v>
+      </c>
+      <c r="F35">
+        <v>0.0006394872739170073</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02594373154234876</v>
+        <v>0.02759036245962382</v>
       </c>
       <c r="C36">
-        <v>0.007730189501932542</v>
+        <v>-0.006906045336653887</v>
       </c>
       <c r="D36">
-        <v>0.03921528217152653</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03911795802414929</v>
+      </c>
+      <c r="E36">
+        <v>-0.01632546113597513</v>
+      </c>
+      <c r="F36">
+        <v>0.01511644300636089</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0005263503526742664</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006654849542473305</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002270982715162909</v>
+      </c>
+      <c r="E37">
+        <v>0.0001347461210522959</v>
+      </c>
+      <c r="F37">
+        <v>-0.002298548619204638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.114135746547373</v>
+        <v>0.1029198184130641</v>
       </c>
       <c r="C39">
-        <v>0.02393414094563231</v>
+        <v>-0.01601416458087052</v>
       </c>
       <c r="D39">
-        <v>0.1443344521431552</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1522340509108872</v>
+      </c>
+      <c r="E39">
+        <v>-0.05759800502296431</v>
+      </c>
+      <c r="F39">
+        <v>0.02954757937209651</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03819792625979049</v>
+        <v>0.04288866029798544</v>
       </c>
       <c r="C40">
-        <v>0.009242445209488706</v>
+        <v>-0.007536782062872362</v>
       </c>
       <c r="D40">
-        <v>0.01720703026423577</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03183558332058662</v>
+      </c>
+      <c r="E40">
+        <v>-0.002423908272453123</v>
+      </c>
+      <c r="F40">
+        <v>-0.01851998567778965</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02582253679828087</v>
+        <v>0.0281032545710744</v>
       </c>
       <c r="C41">
-        <v>0.007366823228012122</v>
+        <v>-0.006878832238967688</v>
       </c>
       <c r="D41">
-        <v>0.007829375481119567</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01060439774590903</v>
+      </c>
+      <c r="E41">
+        <v>-0.01222679854275258</v>
+      </c>
+      <c r="F41">
+        <v>-0.00575237273880172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04225287447989045</v>
+        <v>0.04051079468425707</v>
       </c>
       <c r="C43">
-        <v>0.008265965453229189</v>
+        <v>-0.007452183266172867</v>
       </c>
       <c r="D43">
-        <v>0.01531854804106287</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01919332359470281</v>
+      </c>
+      <c r="E43">
+        <v>-0.02520609679104897</v>
+      </c>
+      <c r="F43">
+        <v>-0.01342230073636899</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07049361324188709</v>
+        <v>0.07898574166459363</v>
       </c>
       <c r="C44">
-        <v>0.02554560404082879</v>
+        <v>-0.01929842425405858</v>
       </c>
       <c r="D44">
-        <v>0.08969306602914992</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09590229706390789</v>
+      </c>
+      <c r="E44">
+        <v>-0.0597771161234195</v>
+      </c>
+      <c r="F44">
+        <v>0.1605940830150156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02180388526650731</v>
+        <v>0.02432932446743264</v>
       </c>
       <c r="C46">
-        <v>0.004019268991837871</v>
+        <v>-0.003546147290982289</v>
       </c>
       <c r="D46">
-        <v>0.006354993947482162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0130598752455463</v>
+      </c>
+      <c r="E46">
+        <v>-0.02694723285547905</v>
+      </c>
+      <c r="F46">
+        <v>-0.006396047648401584</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05266316271551299</v>
+        <v>0.05274276131779389</v>
       </c>
       <c r="C47">
-        <v>0.004737076097221063</v>
+        <v>-0.004008382941896563</v>
       </c>
       <c r="D47">
-        <v>0.008520072367997955</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01090473046814016</v>
+      </c>
+      <c r="E47">
+        <v>-0.02317234344954856</v>
+      </c>
+      <c r="F47">
+        <v>-0.03221056021837895</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04806174127390948</v>
+        <v>0.05021433664701433</v>
       </c>
       <c r="C48">
-        <v>0.004718992077044772</v>
+        <v>-0.002112698468027965</v>
       </c>
       <c r="D48">
-        <v>0.04448517295490336</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04970574382556856</v>
+      </c>
+      <c r="E48">
+        <v>0.005115959043881983</v>
+      </c>
+      <c r="F48">
+        <v>0.008689839419086255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2028516184653021</v>
+        <v>0.2002957048945278</v>
       </c>
       <c r="C49">
-        <v>0.02216799754403154</v>
+        <v>-0.01954193864299304</v>
       </c>
       <c r="D49">
-        <v>-0.01585301715419631</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.00546158350810105</v>
+      </c>
+      <c r="E49">
+        <v>-0.03168359033508539</v>
+      </c>
+      <c r="F49">
+        <v>0.04295328560380306</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04930473448727232</v>
+        <v>0.05101227273265648</v>
       </c>
       <c r="C50">
-        <v>0.01312224813014102</v>
+        <v>-0.01171649677587483</v>
       </c>
       <c r="D50">
-        <v>0.02226300415249815</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02314801155327134</v>
+      </c>
+      <c r="E50">
+        <v>-0.02938453319142446</v>
+      </c>
+      <c r="F50">
+        <v>0.009781653138883475</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1559299066437883</v>
+        <v>0.1494025510093063</v>
       </c>
       <c r="C52">
-        <v>0.02025356931697041</v>
+        <v>-0.01851224602977413</v>
       </c>
       <c r="D52">
-        <v>0.04943164803721415</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04204664696366798</v>
+      </c>
+      <c r="E52">
+        <v>-0.02184131735850773</v>
+      </c>
+      <c r="F52">
+        <v>0.0435871525782033</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1736609386394477</v>
+        <v>0.1700439513480166</v>
       </c>
       <c r="C53">
-        <v>0.02037278191150725</v>
+        <v>-0.02098314186994332</v>
       </c>
       <c r="D53">
-        <v>0.01297024859921856</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005667857255336983</v>
+      </c>
+      <c r="E53">
+        <v>-0.02908472562961567</v>
+      </c>
+      <c r="F53">
+        <v>0.07389089817845443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01699854357136776</v>
+        <v>0.02000033543815762</v>
       </c>
       <c r="C54">
-        <v>0.01219503203247901</v>
+        <v>-0.01095987186285952</v>
       </c>
       <c r="D54">
-        <v>0.02785451357762931</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03397776797628468</v>
+      </c>
+      <c r="E54">
+        <v>-0.02126649637686999</v>
+      </c>
+      <c r="F54">
+        <v>-0.002020594174570905</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1169368218759445</v>
+        <v>0.1158570627142538</v>
       </c>
       <c r="C55">
-        <v>0.01829397529445455</v>
+        <v>-0.01856384417957377</v>
       </c>
       <c r="D55">
-        <v>0.01120097529874618</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008431512042475726</v>
+      </c>
+      <c r="E55">
+        <v>-0.0255814200308692</v>
+      </c>
+      <c r="F55">
+        <v>0.04665090198054327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1802405037441013</v>
+        <v>0.1763510626724719</v>
       </c>
       <c r="C56">
-        <v>0.01822136931043556</v>
+        <v>-0.01903902022830411</v>
       </c>
       <c r="D56">
-        <v>0.00627142922793877</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002355789372091961</v>
+      </c>
+      <c r="E56">
+        <v>-0.03238598652216334</v>
+      </c>
+      <c r="F56">
+        <v>0.05323492382124386</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04854699187040461</v>
+        <v>0.04553710417264548</v>
       </c>
       <c r="C58">
-        <v>0.005781041262374668</v>
+        <v>0.0004614575485080763</v>
       </c>
       <c r="D58">
-        <v>0.05819358125436385</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07403410124054555</v>
+      </c>
+      <c r="E58">
+        <v>-0.03578060376439324</v>
+      </c>
+      <c r="F58">
+        <v>-0.03618861606182353</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1642159964173428</v>
+        <v>0.1670745039399373</v>
       </c>
       <c r="C59">
-        <v>0.01469444099310111</v>
+        <v>-0.02298927018933879</v>
       </c>
       <c r="D59">
-        <v>-0.2269112987917151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2185613664310183</v>
+      </c>
+      <c r="E59">
+        <v>0.04875835613821975</v>
+      </c>
+      <c r="F59">
+        <v>-0.03584694171231588</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2376286531789554</v>
+        <v>0.2309803114797468</v>
       </c>
       <c r="C60">
-        <v>0.002051506372124844</v>
+        <v>0.001006974459947145</v>
       </c>
       <c r="D60">
-        <v>0.0422400349303256</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04023639194536322</v>
+      </c>
+      <c r="E60">
+        <v>-0.006958700491609862</v>
+      </c>
+      <c r="F60">
+        <v>1.455357041847899e-05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08496636323192121</v>
+        <v>0.07821427593463767</v>
       </c>
       <c r="C61">
-        <v>0.01744766315607037</v>
+        <v>-0.01134452474931978</v>
       </c>
       <c r="D61">
-        <v>0.10339137110446</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1169760929897497</v>
+      </c>
+      <c r="E61">
+        <v>-0.03731281950921565</v>
+      </c>
+      <c r="F61">
+        <v>0.01141733385199039</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1707956493742293</v>
+        <v>0.1685975072373812</v>
       </c>
       <c r="C62">
-        <v>0.02167371805416074</v>
+        <v>-0.02154886352979093</v>
       </c>
       <c r="D62">
-        <v>0.007750003631276734</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005218039209767517</v>
+      </c>
+      <c r="E62">
+        <v>-0.03264989585218457</v>
+      </c>
+      <c r="F62">
+        <v>0.03857362153582364</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04259437205598382</v>
+        <v>0.04605638154645963</v>
       </c>
       <c r="C63">
-        <v>0.005728189321951281</v>
+        <v>-0.0018054529186863</v>
       </c>
       <c r="D63">
-        <v>0.04601775452083907</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05980356239698965</v>
+      </c>
+      <c r="E63">
+        <v>-0.02470999185645289</v>
+      </c>
+      <c r="F63">
+        <v>0.003194433355622037</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1127917403265175</v>
+        <v>0.1110626444122297</v>
       </c>
       <c r="C64">
-        <v>0.0154773149279536</v>
+        <v>-0.01202427018311996</v>
       </c>
       <c r="D64">
-        <v>0.03268682904071651</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04316493388364905</v>
+      </c>
+      <c r="E64">
+        <v>-0.02232365591091207</v>
+      </c>
+      <c r="F64">
+        <v>0.02590436776482287</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.142675224243031</v>
+        <v>0.1522966865050371</v>
       </c>
       <c r="C65">
-        <v>0.03457941584457284</v>
+        <v>-0.03473181727307639</v>
       </c>
       <c r="D65">
-        <v>-0.05633407531902109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0459769561451661</v>
+      </c>
+      <c r="E65">
+        <v>-0.004778740230977502</v>
+      </c>
+      <c r="F65">
+        <v>0.03589259740518105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1370803491297436</v>
+        <v>0.1230286343480361</v>
       </c>
       <c r="C66">
-        <v>0.02223159908903684</v>
+        <v>-0.01433417078132655</v>
       </c>
       <c r="D66">
-        <v>0.1248324940135033</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1400113776641599</v>
+      </c>
+      <c r="E66">
+        <v>-0.06298318731975915</v>
+      </c>
+      <c r="F66">
+        <v>0.03251961246849387</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06306167567113483</v>
+        <v>0.05630707683326097</v>
       </c>
       <c r="C67">
-        <v>0.005552952125689349</v>
+        <v>-0.00305390217713878</v>
       </c>
       <c r="D67">
-        <v>0.05426585255096777</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05653122349441492</v>
+      </c>
+      <c r="E67">
+        <v>-0.01689722902560807</v>
+      </c>
+      <c r="F67">
+        <v>-0.02935150816239697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1070690597776008</v>
+        <v>0.1166396554343505</v>
       </c>
       <c r="C68">
-        <v>0.02285543141597404</v>
+        <v>-0.03348106340238844</v>
       </c>
       <c r="D68">
-        <v>-0.268077676815291</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2614837251035854</v>
+      </c>
+      <c r="E68">
+        <v>0.08837706552264386</v>
+      </c>
+      <c r="F68">
+        <v>-0.002519082890595391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04019575979212504</v>
+        <v>0.03880559510700625</v>
       </c>
       <c r="C69">
-        <v>0.002098763600442525</v>
+        <v>-0.001206695035370794</v>
       </c>
       <c r="D69">
-        <v>0.006652382162248552</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008739905325581283</v>
+      </c>
+      <c r="E69">
+        <v>-0.02386369442324975</v>
+      </c>
+      <c r="F69">
+        <v>0.0009714991453081345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06516552392826586</v>
+        <v>0.06578663013520288</v>
       </c>
       <c r="C70">
-        <v>-0.02501880070275823</v>
+        <v>0.02742750478350175</v>
       </c>
       <c r="D70">
-        <v>-0.004594164694509377</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02525914828441978</v>
+      </c>
+      <c r="E70">
+        <v>0.03085779231020633</v>
+      </c>
+      <c r="F70">
+        <v>-0.1778357177209832</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1261119045941771</v>
+        <v>0.1367299169034339</v>
       </c>
       <c r="C71">
-        <v>0.0268025965879785</v>
+        <v>-0.03803122386063826</v>
       </c>
       <c r="D71">
-        <v>-0.2843700879494487</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2718315654424138</v>
+      </c>
+      <c r="E71">
+        <v>0.09822327641718051</v>
+      </c>
+      <c r="F71">
+        <v>0.00372798778623075</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.138220321003874</v>
+        <v>0.1437899421630988</v>
       </c>
       <c r="C72">
-        <v>0.02793675234458454</v>
+        <v>-0.02785023578745024</v>
       </c>
       <c r="D72">
-        <v>0.006110172181874807</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004424632586916603</v>
+      </c>
+      <c r="E72">
+        <v>-0.03640941792669772</v>
+      </c>
+      <c r="F72">
+        <v>0.03072635285529826</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2079340800515543</v>
+        <v>0.204933043542846</v>
       </c>
       <c r="C73">
-        <v>0.01746120149976217</v>
+        <v>-0.01349676771755175</v>
       </c>
       <c r="D73">
-        <v>0.00989755424108618</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01771971917218157</v>
+      </c>
+      <c r="E73">
+        <v>-0.06650249974952566</v>
+      </c>
+      <c r="F73">
+        <v>0.03954374954374359</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09411929570472582</v>
+        <v>0.09539981421261537</v>
       </c>
       <c r="C74">
-        <v>0.01433941551769752</v>
+        <v>-0.01416916429486634</v>
       </c>
       <c r="D74">
-        <v>0.01929742643366988</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01664584527787767</v>
+      </c>
+      <c r="E74">
+        <v>-0.04378588730950037</v>
+      </c>
+      <c r="F74">
+        <v>0.05523570803162313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1334780486326768</v>
+        <v>0.1267746240718484</v>
       </c>
       <c r="C75">
-        <v>0.03035172264089088</v>
+        <v>-0.02909987417861237</v>
       </c>
       <c r="D75">
-        <v>0.0310196320270432</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02908919301932817</v>
+      </c>
+      <c r="E75">
+        <v>-0.05689080419194044</v>
+      </c>
+      <c r="F75">
+        <v>0.02322670515782356</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08259309442067921</v>
+        <v>0.09038451753123909</v>
       </c>
       <c r="C77">
-        <v>0.01499644431554286</v>
+        <v>-0.008505301618241883</v>
       </c>
       <c r="D77">
-        <v>0.09990849224091689</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1144478874995641</v>
+      </c>
+      <c r="E77">
+        <v>-0.04388784225969306</v>
+      </c>
+      <c r="F77">
+        <v>0.0333897141672278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09892722050952213</v>
+        <v>0.09972026022311298</v>
       </c>
       <c r="C78">
-        <v>0.04377549890266277</v>
+        <v>-0.03841391042401732</v>
       </c>
       <c r="D78">
-        <v>0.1117587128050794</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1135965025023005</v>
+      </c>
+      <c r="E78">
+        <v>-0.07637608770941984</v>
+      </c>
+      <c r="F78">
+        <v>0.05210568504919064</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1648926843861089</v>
+        <v>0.1632133593043799</v>
       </c>
       <c r="C79">
-        <v>0.02500105662951601</v>
+        <v>-0.02412884944015299</v>
       </c>
       <c r="D79">
-        <v>0.01292348213600966</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01296779041417822</v>
+      </c>
+      <c r="E79">
+        <v>-0.04430549724838568</v>
+      </c>
+      <c r="F79">
+        <v>0.01227129020169205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0812430395950398</v>
+        <v>0.07932548483771135</v>
       </c>
       <c r="C80">
-        <v>0.001088127324246846</v>
+        <v>0.0008903815956433768</v>
       </c>
       <c r="D80">
-        <v>0.04993750987496822</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05450033869254733</v>
+      </c>
+      <c r="E80">
+        <v>-0.03254719965691683</v>
+      </c>
+      <c r="F80">
+        <v>-0.02225672664235686</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1200940756878879</v>
+        <v>0.117527176257574</v>
       </c>
       <c r="C81">
-        <v>0.03243314377721659</v>
+        <v>-0.03264371927401025</v>
       </c>
       <c r="D81">
-        <v>0.02425408705864153</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01440450054512151</v>
+      </c>
+      <c r="E81">
+        <v>-0.05499689380183034</v>
+      </c>
+      <c r="F81">
+        <v>0.01936683128264393</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1658793899853018</v>
+        <v>0.1656997093371542</v>
       </c>
       <c r="C82">
-        <v>0.02579791573761998</v>
+        <v>-0.02635553145115958</v>
       </c>
       <c r="D82">
-        <v>0.0136998270711208</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002926510031710124</v>
+      </c>
+      <c r="E82">
+        <v>-0.02655686751741548</v>
+      </c>
+      <c r="F82">
+        <v>0.08157480294020492</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06354348292405734</v>
+        <v>0.05761188130187286</v>
       </c>
       <c r="C83">
-        <v>0.005740737317233312</v>
+        <v>-0.00326154246265371</v>
       </c>
       <c r="D83">
-        <v>0.04237848342265095</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04898023441706978</v>
+      </c>
+      <c r="E83">
+        <v>-0.002000407168802986</v>
+      </c>
+      <c r="F83">
+        <v>-0.03067231605495655</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06338517241951815</v>
+        <v>0.05740602586663626</v>
       </c>
       <c r="C84">
-        <v>0.01425787465041506</v>
+        <v>-0.0109885341119656</v>
       </c>
       <c r="D84">
-        <v>0.06601379688400333</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07221989061501888</v>
+      </c>
+      <c r="E84">
+        <v>-0.01405792260024805</v>
+      </c>
+      <c r="F84">
+        <v>0.01304562226990318</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1380315867516738</v>
+        <v>0.1345404658013339</v>
       </c>
       <c r="C85">
-        <v>0.02920056410687225</v>
+        <v>-0.02913704731055447</v>
       </c>
       <c r="D85">
-        <v>0.01619158949671103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009384486612686956</v>
+      </c>
+      <c r="E85">
+        <v>-0.03576146031137592</v>
+      </c>
+      <c r="F85">
+        <v>0.04688321541095757</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1015169689948265</v>
+        <v>0.09327809480469923</v>
       </c>
       <c r="C86">
-        <v>-0.002844200777540311</v>
+        <v>0.005890817079561453</v>
       </c>
       <c r="D86">
-        <v>0.001655595383359725</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0497162179313022</v>
+      </c>
+      <c r="E86">
+        <v>-0.2388185416927811</v>
+      </c>
+      <c r="F86">
+        <v>-0.9035469308455114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09954886614134162</v>
+        <v>0.09329734336894746</v>
       </c>
       <c r="C87">
-        <v>0.028197056809952</v>
+        <v>-0.01961062226282504</v>
       </c>
       <c r="D87">
-        <v>0.07027439250275082</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09536594195798856</v>
+      </c>
+      <c r="E87">
+        <v>0.05248927427333975</v>
+      </c>
+      <c r="F87">
+        <v>0.04848671102687686</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06002663179571018</v>
+        <v>0.06019838817198134</v>
       </c>
       <c r="C88">
-        <v>0.005281838821346466</v>
+        <v>-0.002655523680493327</v>
       </c>
       <c r="D88">
-        <v>0.05445555671434257</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04966757683986583</v>
+      </c>
+      <c r="E88">
+        <v>-0.02385728847790551</v>
+      </c>
+      <c r="F88">
+        <v>0.01619511253179682</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1182453932013598</v>
+        <v>0.1278196006091304</v>
       </c>
       <c r="C89">
-        <v>0.0038925242200667</v>
+        <v>-0.01328546980489745</v>
       </c>
       <c r="D89">
-        <v>-0.2547710567666024</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2449794579864805</v>
+      </c>
+      <c r="E89">
+        <v>0.09238111052600197</v>
+      </c>
+      <c r="F89">
+        <v>-0.01111179131436694</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1370107668969642</v>
+        <v>0.1515398611754876</v>
       </c>
       <c r="C90">
-        <v>0.02330673520403815</v>
+        <v>-0.03469819273212772</v>
       </c>
       <c r="D90">
-        <v>-0.2698193556585062</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2687575000767498</v>
+      </c>
+      <c r="E90">
+        <v>0.1136066564568055</v>
+      </c>
+      <c r="F90">
+        <v>-0.01213048966818752</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1207402181348653</v>
+        <v>0.1210953424666909</v>
       </c>
       <c r="C91">
-        <v>0.02012751552803178</v>
+        <v>-0.02078958949871249</v>
       </c>
       <c r="D91">
-        <v>-0.007803398355274314</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01599578719341103</v>
+      </c>
+      <c r="E91">
+        <v>-0.05476640721593981</v>
+      </c>
+      <c r="F91">
+        <v>-0.0008677983151637564</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1393748428972217</v>
+        <v>0.147525664994398</v>
       </c>
       <c r="C92">
-        <v>0.01366544005968051</v>
+        <v>-0.02529414991307262</v>
       </c>
       <c r="D92">
-        <v>-0.3045669375796918</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2899387376251206</v>
+      </c>
+      <c r="E92">
+        <v>0.1030549768638851</v>
+      </c>
+      <c r="F92">
+        <v>-0.01968087458238795</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1407306597591107</v>
+        <v>0.1526041714966349</v>
       </c>
       <c r="C93">
-        <v>0.01916772623461442</v>
+        <v>-0.02952851399294691</v>
       </c>
       <c r="D93">
-        <v>-0.2696775776595562</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2649957051030818</v>
+      </c>
+      <c r="E93">
+        <v>0.0759390808415311</v>
+      </c>
+      <c r="F93">
+        <v>-0.001844678347088563</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1342948144057059</v>
+        <v>0.1275394252681323</v>
       </c>
       <c r="C94">
-        <v>0.02734471367561451</v>
+        <v>-0.02547699685306156</v>
       </c>
       <c r="D94">
-        <v>0.04437664537742241</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04055199497351156</v>
+      </c>
+      <c r="E94">
+        <v>-0.05685804855740374</v>
+      </c>
+      <c r="F94">
+        <v>0.0359487816127621</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1233263998146229</v>
+        <v>0.1262272766159213</v>
       </c>
       <c r="C95">
-        <v>0.009395911468307634</v>
+        <v>-0.0032429839278153</v>
       </c>
       <c r="D95">
-        <v>0.08605164610745333</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09856456574200007</v>
+      </c>
+      <c r="E95">
+        <v>-0.05351471692021155</v>
+      </c>
+      <c r="F95">
+        <v>-0.002398977104732957</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1205791336576807</v>
+        <v>0.1140368716721328</v>
       </c>
       <c r="C96">
-        <v>-0.9869870687141608</v>
+        <v>0.9866422852181227</v>
       </c>
       <c r="D96">
-        <v>-0.01269359533353741</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05115154561449251</v>
+      </c>
+      <c r="E96">
+        <v>-0.05142052377575643</v>
+      </c>
+      <c r="F96">
+        <v>0.04248403496606287</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1942565123502921</v>
+        <v>0.1950829194429401</v>
       </c>
       <c r="C97">
-        <v>-0.005199090745300792</v>
+        <v>0.005566169264396045</v>
       </c>
       <c r="D97">
-        <v>-0.01276942085012308</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01981040657540757</v>
+      </c>
+      <c r="E97">
+        <v>-0.02194500510127319</v>
+      </c>
+      <c r="F97">
+        <v>-0.09107322808178199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1996764155111522</v>
+        <v>0.2065972587341941</v>
       </c>
       <c r="C98">
-        <v>0.01185883054491827</v>
+        <v>-0.007617757435735139</v>
       </c>
       <c r="D98">
-        <v>0.009425499729819988</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01493239863868515</v>
+      </c>
+      <c r="E98">
+        <v>0.07391242492451125</v>
+      </c>
+      <c r="F98">
+        <v>-0.09098934412693713</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.0556971349275177</v>
+        <v>0.05546924220344542</v>
       </c>
       <c r="C99">
-        <v>-0.002099951934693887</v>
+        <v>0.004138550888724229</v>
       </c>
       <c r="D99">
-        <v>0.02675150786487012</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03822686541430347</v>
+      </c>
+      <c r="E99">
+        <v>-0.02125093747749685</v>
+      </c>
+      <c r="F99">
+        <v>0.003891414254099194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1417854969527144</v>
+        <v>0.1283495765192317</v>
       </c>
       <c r="C100">
-        <v>-0.03808840892058804</v>
+        <v>0.05155364703887511</v>
       </c>
       <c r="D100">
-        <v>0.4003536921461099</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3517213636773973</v>
+      </c>
+      <c r="E100">
+        <v>0.8828138923614853</v>
+      </c>
+      <c r="F100">
+        <v>-0.1655054786464278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02525615306057979</v>
+        <v>0.0285031114682757</v>
       </c>
       <c r="C101">
-        <v>0.009528828292500683</v>
+        <v>-0.00887105647910374</v>
       </c>
       <c r="D101">
-        <v>0.02457919972284822</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0305472370278986</v>
+      </c>
+      <c r="E101">
+        <v>-0.01251548093440162</v>
+      </c>
+      <c r="F101">
+        <v>-0.01507828474706402</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
